--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Extra\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8B8109-6946-48D0-B679-895BA492EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C898A-7629-438D-9DE1-30E0B14A15F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D8002EB-CBDD-47B0-992C-4D0A104441BC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Schedule for Machine Learning</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>Week 7 - Talking with Pranjal Yadav</t>
+  </si>
+  <si>
+    <t>Week 8 - Multi Index Series and Data Index</t>
+  </si>
+  <si>
+    <t>Week 8 - Vectorized String Operation</t>
+  </si>
+  <si>
+    <t>Week 8 - Pandas Case Study</t>
+  </si>
+  <si>
+    <t>Week 8 - Pandas Case Study 2</t>
+  </si>
+  <si>
+    <t>Week 7 - Task 2</t>
   </si>
 </sst>
 </file>
@@ -90,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +118,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,17 +160,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A4A34A-4054-4754-923E-12CA6BF1DEB9}">
-  <dimension ref="G4:O43"/>
+  <dimension ref="G4:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,430 +511,498 @@
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G4" s="1" t="s">
+    <row r="4" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H12" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H13" s="2">
+    <row r="13" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>45820</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="1" t="str">
         <f>TEXT(I13, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="O13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45822</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>TEXT(I14, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45820</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>TEXT(I14, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H15" s="2">
+      <c r="M14" s="1"/>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>45822</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="1" t="str">
         <f>TEXT(I15, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="2">
+      <c r="L15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="O15" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>45822</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="J16" s="1" t="str">
         <f>TEXT(I16, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45824</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>TEXT(I17, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>6</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="I18" s="2">
+        <v>45825</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>TEXT(I18, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>7</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="I19" s="2">
+        <v>45826</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>TEXT(I19, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="I20" s="2">
+        <v>45827</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>TEXT(I20, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>9</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="I21" s="2">
+        <v>45828</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>TEXT(I21, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="2">
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
         <v>10</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="2">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
         <v>11</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H24" s="2">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
         <v>12</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H25" s="2">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
         <v>13</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H26" s="2">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
         <v>14</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H27" s="2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
         <v>15</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H28" s="2">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
         <v>16</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="2">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
         <v>17</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H30" s="2">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
         <v>18</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H31" s="2">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H32" s="1">
         <v>19</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H32" s="2">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H33" s="1">
         <v>20</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H33" s="2">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H34" s="1">
         <v>21</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H34" s="2">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H35" s="1">
         <v>22</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H35" s="2">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="1">
         <v>23</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H36" s="2">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
         <v>24</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H37" s="2">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
         <v>25</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H38" s="2">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
         <v>26</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H39" s="2">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
         <v>27</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H40" s="2">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H41" s="1">
         <v>28</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H41" s="2">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
         <v>29</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H42" s="2">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H43" s="1">
         <v>30</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H43" s="2">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H44" s="1">
         <v>31</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -901,7 +1017,7 @@
           <x14:formula1>
             <xm:f>List!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L13:L43</xm:sqref>
+          <xm:sqref>O13:O16 L13:L44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
